--- a/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
+++ b/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -258,16 +258,16 @@
     <t xml:space="preserve">41c (ii). Choo hiki kinatumiwa na kaya nyingine?</t>
   </si>
   <si>
-    <t xml:space="preserve">4aciii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41c (iii). [If yes] With how many households? (not including this household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41c (iii). [Se sim] Com quantos agregados familiares? (Não incluindo este agregado familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41c (iii). [Ikiwa ndiyo] Na kaya ngapi? (bila kujumuisha kaya hii</t>
+    <t xml:space="preserve">4ciii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41c (iii). With how many households? (not including this household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41c (iii). Com quantos agregados familiares? (Não incluindo este agregado familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41c (iii). Na kaya ngapi? (bila kujumuisha kaya hii</t>
   </si>
   <si>
     <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
@@ -540,13 +540,13 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1585,16 +1585,16 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.57"/>
@@ -1728,11 +1728,11 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.77"/>
@@ -1866,11 +1866,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.33"/>
@@ -1880,7 +1880,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="8.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3006,15 +3006,15 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="8.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4080,11 +4080,11 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>

--- a/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
+++ b/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t xml:space="preserve">41c (ii). Choo hiki kinatumiwa na kaya nyingine?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4ciii</t>
   </si>
   <si>
     <t xml:space="preserve">41c (iii). With how many households? (not including this household</t>
@@ -392,12 +389,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -434,12 +437,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -490,7 +497,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -544,7 +551,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -1589,7 +1596,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.03"/>
@@ -1732,7 +1739,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.77"/>
@@ -1870,7 +1877,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.33"/>
@@ -3010,7 +3017,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.14"/>
@@ -4081,10 +4088,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>
@@ -4134,24 +4141,30 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,13 +4172,13 @@
         <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,13 +4186,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,13 +4200,13 @@
         <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,13 +4214,13 @@
         <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,13 +4228,13 @@
         <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,13 +4242,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,13 +4256,13 @@
         <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,13 +4270,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,13 +4284,13 @@
         <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
+++ b/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
@@ -551,7 +551,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -1596,7 +1596,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.03"/>
@@ -1739,7 +1739,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.77"/>
@@ -1877,7 +1877,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.33"/>
@@ -3017,7 +3017,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.14"/>
@@ -4088,10 +4088,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>

--- a/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
+++ b/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -267,7 +267,13 @@
     <t xml:space="preserve">41c (iii). Na kaya ngapi? (bila kujumuisha kaya hii</t>
   </si>
   <si>
-    <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
+    <t xml:space="preserve">Household Identification {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utambulisho wa Kaya {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificação do agregado{{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">Toilet connected to septic tank</t>
@@ -389,18 +395,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -437,16 +437,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,7 +493,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFD8CE"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -551,7 +547,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -1596,15 +1592,15 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.55"/>
   </cols>
@@ -1739,10 +1735,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,7 +1873,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.33"/>
@@ -3017,7 +3013,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.14"/>
@@ -4088,13 +4084,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,18 +4149,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
+      <c r="C5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4172,13 +4168,13 @@
         <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,13 +4182,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,13 +4196,13 @@
         <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,13 +4210,13 @@
         <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4228,13 +4224,13 @@
         <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,13 +4238,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,13 +4252,13 @@
         <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,13 +4266,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4284,17 +4280,17 @@
         <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1048576">
+  <conditionalFormatting sqref="B1:B1048576 C1:D4 C6:D1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
+++ b/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
@@ -267,13 +267,13 @@
     <t xml:space="preserve">41c (iii). Na kaya ngapi? (bila kujumuisha kaya hii</t>
   </si>
   <si>
-    <t xml:space="preserve">Household Identification {{data.hh_id}}</t>
+    <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificação do agregado{{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">Utambulisho wa Kaya {{data.hh_id}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificação do agregado{{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">Toilet connected to septic tank</t>
@@ -543,7 +543,7 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1588,7 +1588,7 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1731,7 +1731,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1869,7 +1869,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3009,7 +3009,7 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4083,8 +4083,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4290,7 +4290,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576 C1:D4 C6:D1048576">
+  <conditionalFormatting sqref="B1:D4 B6:D1048576 B5">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
+++ b/odkx/app/config/tables/hh_latrine/forms/hh_latrine/hh_latrine.xlsx
@@ -270,10 +270,10 @@
     <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
   </si>
   <si>
-    <t xml:space="preserve">Identificação do agregado{{data.hh_id}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utambulisho wa Kaya {{data.hh_id}}</t>
+    <t xml:space="preserve">Identificação do agregado: {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utambulisho wa Kaya: {{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">Toilet connected to septic tank</t>
@@ -547,7 +547,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -1592,7 +1592,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.03"/>
@@ -1735,7 +1735,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.76"/>
@@ -1873,7 +1873,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.33"/>
@@ -3013,7 +3013,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.14"/>
@@ -4083,11 +4083,11 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
